--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
